--- a/scripts/pga-2018.xlsx
+++ b/scripts/pga-2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mweimer/Documents/Github/golf-pool/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF481B06-18AD-3047-8CD2-EAEEBCB54543}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337A16A0-CB85-F944-9435-5CB0B729D5D0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39880" yWindow="3620" windowWidth="28800" windowHeight="16640" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player Tiers &amp; Instructions" sheetId="23" r:id="rId1"/>
@@ -3902,8 +3902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703F8F04-C595-E548-9639-2E1D56670CC8}">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4119,43 +4119,43 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
         <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
